--- a/solutions/solution milp v1-city-n15-f2-d1-s4-c8-p1-v1.xlsx
+++ b/solutions/solution milp v1-city-n15-f2-d1-s4-c8-p1-v1.xlsx
@@ -1580,7 +1580,7 @@
         <v>1895.547</v>
       </c>
       <c r="C2">
-        <v>0.8038217000000003</v>
+        <v>1.0283117</v>
       </c>
     </row>
   </sheetData>
